--- a/docs/oncocore-CancerDisorderPresent.xlsx
+++ b/docs/oncocore-CancerDisorderPresent.xlsx
@@ -5437,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
